--- a/parsing.xlsx
+++ b/parsing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="735">
   <si>
     <t>Наименование</t>
   </si>
@@ -25,19 +25,2197 @@
     <t>СИБРТЕХ Ведро строительное 20л</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Таз строительный 65л</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Таз строительный 40л</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Ведро строительное 12л</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Момоент Клей экспресс МВ-50 (жид.гвозди)</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>PUTECH Пены 0,5л</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Грунт по мет. ГФ-021 (1л)</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Cover Антисептик 10кг</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>Cover Клей ПВА 5кг</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>DenBraven Силиконовый гермет Delta 260мл</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Oscar Клей для стелообоев 10кг</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>IRFIX GUN Пена профессиональная зима(750мл)</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>IRFIX Силикон санитарный (310мл)</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>IRFIX МОНТАЖ универсальный (жидкие гвозди)</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>IRFix Акриловый герметик 310 мл</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>IRFIX Proff - Клей для кладки блоков (750мл)</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>IRFIX Очиститель монтажной пены (500мл.)</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Фанера 10мм 1,5*1,5</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>Фанера 8мм 1,5*1,5</t>
+  </si>
+  <si>
+    <t>Брус обрезной 50*50 3м</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Фанера 15мм 1,5*1,5</t>
+  </si>
+  <si>
+    <t>Фанера 20мм 1,5*1,5</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>Доска обрезная 100*25 3м</t>
+  </si>
+  <si>
+    <t>Кнауф, Элемент пола. 120*600*20 мм</t>
+  </si>
+  <si>
+    <t>Кнауф ГВЛ 2500*1200*10</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Кнауф ГВЛ 2500*1200*12,5</t>
+  </si>
+  <si>
+    <t>РДС Засыпка для пола 40л (0,05м3)</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Прямой подвес КНАУФ для профиля потолок</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Профиль-углозащитный 30*30*3000</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Кнауф Дихтунсбанд (лента для проф.) 30мм*30м</t>
+  </si>
+  <si>
+    <t>Албес Проф. маячковый 19*6 Стронг</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Волма ГКЛ 2500*1200*9,5</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Кнауф Флехендихтбанд (лента для гидроиз.) 10*120/70 мм</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>Волма ГКЛ 2500*1200*12,5</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Волма ГКЛв 2500*1200*9,5</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Албес Профиль ПС-2 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Албес Профиль ПН-2 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Волма ГКЛв 2500*1200*12,5</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Удленитель профилей кнауф</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Соединитель профиля КНАУФ одноуровневый(Краб)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Албес Краб для профиля ПП 60х27</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Албес Уголок PL 21*21 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Албес Профиль ППН-27*28 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Албес Профиль ПП 60*27 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Албес Прямой подвес для ПП-60х27</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Валик 250 (80114)</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Гирпаинт Валик 250\12d40</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Политех Валик 250 в сборе</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Stayer DUALON Валик 240мм в сборе</t>
+  </si>
+  <si>
+    <t>ИНТЕК Кисть-макловица 150*70</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>ИНТЕК Кисть-макловица 180*80</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>БИБЕР Кисть Макловица 150*50мм</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>БИБЕР Кисть Макловица 170*70мм</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Промис Инструмент Кисть плоск 2 50мм дер.р</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Ручка телескопическая мет. 0,75-1,5</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>БИБЕР Ванночка для краски 330*350мм</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>MATRIX Миксер 100*450 SDS+</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>MATRIX Мини-валик сменный НЕЙЛОН 100\12d16</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская дер.руч Евро 3\4 20мм</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская Стандарт 2,0 50мм</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>MATRIX Телескопическая ручка 1,0-2м</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть Макловица 170*70мм</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Валик Игольчатый 300мм (26 мм)</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть радиаторная 2</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская Стандарт 2,5 63мм</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть Макловица 150*70мм</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Sparta Кисть ракля 30*120</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MATRIX Ручка для мини-валиков 100мм D6мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Валик Игольчатый 300мм (13 мм)</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская Стандарт 1,5 38мм</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Sparta Кисть плоская 4" 100мм</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Sparta Ванночка для краски 320*320мм</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть радиаторная 1,5</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская пласт.р Евро 3\4 20мм</t>
+  </si>
+  <si>
+    <t>MATRIX Валик 250 мм в сборе</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Серпянка 50мм*90м (100,00)</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>TYTAN Pro. Пена монт. зимняя 750мл</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>WAND MASTER Серпянка 50мм*90м</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Kolotek Стеклосетка малярн. 5*5мм 1*30м</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>Kolotek Стеклосетка малярн. 2*2мм 1*30м</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>Dulux Краска влагост. Кухня и Ванная 2,5кг</t>
+  </si>
+  <si>
+    <t>Dulux Краска белая мат. 10л</t>
+  </si>
+  <si>
+    <t>Oscar Стеклохолст малярный 50м 25г\м2</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>Серпянка 50мм*90м</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Tech-KREP Грибок для утепл 10/80</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Арматура D10</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Саморез по дереву 4,2*63мм(1кг)</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Саморез по дереву 4,2*70мм(1кг)</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Уголок крепежный 70*70 мет</t>
+  </si>
+  <si>
+    <t>Шпилька 8*1000</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Нагель 182</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Нагель 132</t>
+  </si>
+  <si>
+    <t>Нагель 152</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>FIXER Саморез ГВЛ 3,9*25мм(1кг)</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>FIXER Саморез по гипсокарт. мет. 3,5*25 (1кг)</t>
+  </si>
+  <si>
+    <t>FIXER Саморез по дереву 4,2*64мм(1кг)</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>ZITAR Саморез гипсокартон-метал 3,5*35(1кг)</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>FIXER Саморез по дереву 4,2*70мм(1кг)</t>
+  </si>
+  <si>
+    <t>Уголок металлический 40*40(1м.п.)</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>FIXER Саморез c пресшайбой металл 4,2*13 (1кг)</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Tech-KREP Дюбель гвоздь 6\40 200шт\уп.</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>FIXER Саморез гипсокартон-метал 3,5*35(1кг)</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Tech-KREP Грибок для утепл 10/100</t>
+  </si>
+  <si>
+    <t>Подоконник ПВХ</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Заглушка для подоконника</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Сендвич панель на откосы</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Волма ПГП 667*500*100 полн. влаг</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Волма ПГП 667*500*80 полн. об.</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Волма ПГП 667*500*80 полн. влаг.</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Г\С Блок 600*250*100 D600</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Г\С Блок 600*250*200</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>ЭКО Г\С Блок 600*250*75 D500</t>
+  </si>
+  <si>
+    <t>Г\С Блок 600*250*50</t>
+  </si>
+  <si>
+    <t>Арочный уголок пласт. 3м</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Лента монтажная перфорированная LP-V 17*0,55(20м)</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>СВ-Форум Кромочная лента 0,1*20м</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Скотч малярный 50мм*(эконом.)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Оргалит 2,14х1,22х4 (3,2мм)</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Сибртех Крестик для плитки 1,5 (100шт)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Крестик для плитки 2.0 (100шт)</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>IEK Изолента ПВХ 15мм*20м</t>
+  </si>
+  <si>
+    <t>Пленка полиэтиленовая 60мкр 3*10</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Пленка полиэтиленовая 80мкр 3*10</t>
+  </si>
+  <si>
+    <t>БИБЕР Маска малярная Лепесток 10шт</t>
+  </si>
+  <si>
+    <t>Исток Полу-маска</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Крестик для плитки 3.0 (100шт)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Sparta Маска фильтрующая</t>
+  </si>
+  <si>
+    <t>MATRIX Лезвия 18 мм (10шт)</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>MATRIX арм. скотч 48мм*10м</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель обойный 280 мм</t>
+  </si>
+  <si>
+    <t>Веник</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Коронка по стеклу и керамической плитке, 68 х 55 мм</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Коронка по стеклу и керамической плитке, 38 х 55 мм</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Sparta Крестики для плитки 1,5мм (250шт)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Matrix Валик обойный 150 мм</t>
+  </si>
+  <si>
+    <t>Sparta Крестики для плитки 2,5мм (250шт)</t>
+  </si>
+  <si>
+    <t>Метталич. сетка 0,5*2м - 5 м2\рулон</t>
+  </si>
+  <si>
+    <t>Перчатки х\б 2й облив 10\600 пара</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Керамзит фр. 10-20 (0,05 м3)</t>
+  </si>
+  <si>
+    <t>Matrix Диск алмазный отрезной сплошной, 125 х 22,2 мм, сухая резка</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>Sparta Крестики для плитки 3,0мм (250шт)</t>
+  </si>
+  <si>
+    <t>Elfe Пакет для мусора 240л(10шт)</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 450мм</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Лента малярная 48*50м</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ скотч двухсторонний 50*10м</t>
+  </si>
+  <si>
+    <t>Elfe Совок для мусора 280*195</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Matrix Зубило плоское, 14 х 20 х 250 мм, SDS PLUS</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>MATRIX Лезвия 25 мм (10шт)</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Скотч прозрачный 48*25м</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Полумаска фильтрующая</t>
+  </si>
+  <si>
+    <t>Металлическая сетка карта 50*50 - 0,5*2м</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Перчатки вязанные х\б, 3 нити с ПВХ 10\600</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Мешки строительные (зел.)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 100мм</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Sparta Шпатель из нерж стали 100мм</t>
+  </si>
+  <si>
+    <t>БИБЕР Шпатель из нерж стали 100мм</t>
+  </si>
+  <si>
+    <t>Интек Шпатель из нерж стали 350мм</t>
+  </si>
+  <si>
+    <t>БИБЕР Шпатель из нерж стали 350мм</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Интек Шпатель из нерж стали 250мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 200мм зуб 8*8</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 200мм зуб 6*6</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Правило 2,5м</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Правило 1,5м</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 350мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Правило 3м</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 250мм</t>
+  </si>
+  <si>
+    <t>Unis Клей UNIFLEX U-100</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>Основит Грунтовка Унконт LP 51 10л</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>Unis Грунт (ГП) Глубокого проникновен 5л</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Русеан Штукатурка цем. м-150 40кг</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Старатели Бетон-контакт 20кг</t>
+  </si>
+  <si>
+    <t>Старатели Бетон-контакт 5кг</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Кромочная лента 0,1*20м</t>
+  </si>
+  <si>
+    <t>Кнауф Ротбанд-паста Профи 18кг</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>Основит Штукатурка Гипсвэлл PG 25 W бел 30кг</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Unis Шпатлевка полим. БЕЛЫЙ ЖЕМЧУГ 18кг</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>DIANOGIPS SuperFinish шпатлевка гипсовая 28кг/17л</t>
+  </si>
+  <si>
+    <t>Кнауф Гидроизоляция Флехендихт 5кг</t>
+  </si>
+  <si>
+    <t>IRFIX Бетонконтакт 20кг</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Unis Алебастр п\э 5 кг</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Кнауф Шпатлевка гипс. Унифлот 25кг</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>weber.vetonit Шпатлевка LR+ 25кг</t>
+  </si>
+  <si>
+    <t>Кнауф Ротбанд 30кг Красногорский</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Unis Грунт (ГП) Глубокого проникновен 10л</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>Unis Ровнитель Горизонт ультра 20кг</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>ЛЮИКС Пескобетон М300 40кг</t>
+  </si>
+  <si>
+    <t>Unis Клеевая смесь ПЛЮС 25кг</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>Заглушка 1\2 вн.р. мет.</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Millenium Накиданая гайка 20*1\2</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*1500</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*1000</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*250</t>
+  </si>
+  <si>
+    <t>Политэк Крест одн. 110*110*110/45</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Политэк Крест одн. 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>РосТурПласт Муфта комб. разъемн. внут. рез 25*3/4"</t>
+  </si>
+  <si>
+    <t>ТрубПласт Крестовина одноплоскост 110*110*110/45</t>
+  </si>
+  <si>
+    <t>Millennium Муфта переходная 1\2" * 3\4"</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Millennium Угольник 20*90</t>
+  </si>
+  <si>
+    <t>Заглушка 3\4 с нр.р мет.</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>ViEiR Заглушка 1\2 с нар.р</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Millenium Бокс монтажный внутр.</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 фронт</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>REHAU Крепежная планка</t>
+  </si>
+  <si>
+    <t>ELEGANT Американка 3\4 прямая</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>ТрубПласт Крестовина одноплоск 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>REHAU Переход. с накид. гайкой 16-G 1\2 MX</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>Лобнинский СФ Унитаз б/бачка с косым вып</t>
+  </si>
+  <si>
+    <t>Millenium Коллекторная груп 3 вых - отопл.</t>
+  </si>
+  <si>
+    <t>РосТурПласт Муфта гибкая ПП 50</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>FAR Рег. коллек плоск.уплот 3\4* 2вых 1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45 с вы 50 лев+прав</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*500</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45 с вых 50 правый</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*90 с вых 50 лев+прав</t>
+  </si>
+  <si>
+    <t>Редукция 50\40</t>
+  </si>
+  <si>
+    <t>FAR Рег. коллек плоск.уплот 3\4* 3вых 1\2</t>
+  </si>
+  <si>
+    <t>REHAU Переход с накид. гайкой 20-G 1\2 RX</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45 с выходом 50 левый</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 прямой</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 левый</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Таз строительный 65л</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>322</t>
+    <t>Bugatti Кран шаровый мама\папа</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>REHAU Муфта с нар. Резб 16-1/2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*67</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с нар\рез. 20-1\2</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый папа\папа</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*500</t>
+  </si>
+  <si>
+    <t>Прокладка фторопласт 3\4</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Unilock Уплотнительная паста Unipack 75гр</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 правый</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>СИНИКОН силиконовая смазка</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый 1\2на3\4 ст.машинку</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>Прокладка фторопласт 1\2</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем НАР/рез. 20-3/4</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с вн\рез. 20-1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*45</t>
+  </si>
+  <si>
+    <t>АНИ-пласт Гофра под унитаз</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Millennium Гиб подводка для воды (м\п) 2м</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*250</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Millennium Заглушка 110 ВК</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>REHAU Переход с внутр. резб.16-Rp1\2 MX</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>Ostendorf Переход на чугун - тапер 110/124</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Политэк Перех манжета к таперу 110/124</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*2000</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с нар\рез. 20-3\4</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Политэк Переход 110\50</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 25-1\2</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переход с внутр\рез. 16-1\2</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>Millenium Фум лента большая</t>
+  </si>
+  <si>
+    <t>REHAU Переход с накид. гайкой 20-G 3\4 MX</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переходник с нар.\рез. 16-1\2</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переходник с вн\рез.20-1\2</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>AQ Переход на чугун - тапер 50/75</t>
+  </si>
+  <si>
+    <t>Политэк Манжета переходная резиновая 50*32</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Millennium Угольник с нар\резб. 20*1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*87,5</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*1000</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*2000</t>
+  </si>
+  <si>
+    <t>Millennium Заглушка 1\2 с нр.р</t>
+  </si>
+  <si>
+    <t>Политэк Манжета переходная резиновая 40*32</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с вн\рез. 25-1\2</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый мама\мама</t>
+  </si>
+  <si>
+    <t>REHAU Монтажная гильза PX 16</t>
+  </si>
+  <si>
+    <t>BeFAST Анкер лат . с насеч.М8/10*28</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с нар\рез. 25-1\2</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>REHAU Монтажная гильза PX 20</t>
+  </si>
+  <si>
+    <t>Millennium Нипель переходной 1\2" * 3\4"</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переход с нар\рез. 20-1\2</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 50*50 /87,5</t>
+  </si>
+  <si>
+    <t>REHAU Универс.труба RТstabil 16*2,6 - 1м.</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>MILL-ECO труба для В.К. ПП 50*1,8*1500</t>
+  </si>
+  <si>
+    <t>Редукция 50\32</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 25-3\4</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 110*30</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 20-1\2</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 32</t>
+  </si>
+  <si>
+    <t>Millennium Футорка 3\4 * 1\2</t>
+  </si>
+  <si>
+    <t>Политэк Переходная манжета к таперу 50/75</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 20-3\4</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с накид.г. 20 1\2</t>
+  </si>
+  <si>
+    <t>REHAU Гофра 16мм син.</t>
+  </si>
+  <si>
+    <t>REHAU Универс.труба RTstabil 25*3,7 - 1м</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*1000</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*67</t>
+  </si>
+  <si>
+    <t>REHAU Универс.труба RTstabil 20*2,9 - 1м</t>
+  </si>
+  <si>
+    <t>Политэк Заглушка 32</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 40*87,5</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Millennium Угольник с вн\резб. 20*1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*30</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 40*40 /45</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*500</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*250</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*2000</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 40*40 /87,5</t>
+  </si>
+  <si>
+    <t>Политэк Переход 40\32</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 110</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 50</t>
+  </si>
+  <si>
+    <t>Политэк Заглушка 40</t>
+  </si>
+  <si>
+    <t>Millennium Переходн вн.\нар. рез 1\2"*3\4"</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>ViEiR Муфта перех 1\2 на 3\4</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 32*87,5</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 40*45</t>
+  </si>
+  <si>
+    <t>Millennium Ревизия 50</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 32*32 /87,5</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 32*32 /45</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 32*45</t>
+  </si>
+  <si>
+    <t>Millennium Обводное колено 20мм. короткое</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 40</t>
+  </si>
+  <si>
+    <t>REHAU Монтажная гильза PX 25</t>
+  </si>
+  <si>
+    <t>Millennium Угольник 25*90</t>
+  </si>
+  <si>
+    <t>Millennium Угольник 20*45</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Millennium Муфта 25мм</t>
+  </si>
+  <si>
+    <t>Millennium Тройник 20мм</t>
+  </si>
+  <si>
+    <t>Millennium Муфта 20мм</t>
+  </si>
+  <si>
+    <t>Millennium Труба стабильная 20*3,4 PN25</t>
+  </si>
+  <si>
+    <t>Лён</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>Millennium Труба стабильная 25*4,2 PN25</t>
+  </si>
+  <si>
+    <t>Millennium Угольник 25*45</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Флекс Тепло-звукоизоляция 10мм</t>
+  </si>
+  <si>
+    <t>Флекс Тепло-звукоизоляция 5мм</t>
+  </si>
+  <si>
+    <t>Kolotek гидро-пароизоляция 70м</t>
+  </si>
+  <si>
+    <t>Rockwool Акустик Баттс 50мм (6м2)</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>ПЕНОПЛЭКС Утеплитель эктруз. 30*585*1185 (13шт)</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>ПЕНОПЛЭКС Утеплитель эктруз. 50*585*1185 (8шт)</t>
+  </si>
+  <si>
+    <t>Oxiss Сетка абразивная P240</t>
+  </si>
+  <si>
+    <t>Oxiss Сетка абразивная P120</t>
+  </si>
+  <si>
+    <t>Santool Сетка абразивная P240</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>БИБЕР Сетка абразивная P100</t>
+  </si>
+  <si>
+    <t>Шкурка 14а - зерн Н6 1м</t>
+  </si>
+  <si>
+    <t>Sparta Сетка абр P240 115*280мм (10 шт \ упак.)</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шнур крученый капроновый 1,5мм L100м</t>
+  </si>
+  <si>
+    <t>БИБЕР Сетка абр P240 110*280мм (упак.)</t>
+  </si>
+  <si>
+    <t>Sparta Сетка абр P180 115*280мм (10 шт \ упак.)</t>
+  </si>
+  <si>
+    <t>БИБЕР Сетка абр P120 110*280мм (упак.)</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Терка полиурит. 180*320</t>
+  </si>
+  <si>
+    <t>Sparta Сетка абр P100 115*280мм (10 шт \ упак.)</t>
+  </si>
+  <si>
+    <t>Sparta Сетка абр P120 115*280мм (10 шт \ упак.)</t>
+  </si>
+  <si>
+    <t>Sparta Сетка абр P220 115*280мм (10 шт \ упак.)</t>
+  </si>
+  <si>
+    <t>Гофра электр. 20мм (б\н) сер.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Изолента ПВХ 0,015* 10м 130мкм</t>
+  </si>
+  <si>
+    <t>Legrand розетка с заземлением</t>
+  </si>
+  <si>
+    <t>ССТ Теплый пол (мат) 3,85м2 ( WSM-580-3.85)</t>
+  </si>
+  <si>
+    <t>КабельАрсенал ВВГнг ГОСТ 3*1,5мм</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 24 модулей ВНУТ</t>
+  </si>
+  <si>
+    <t>ROL'S Изолента 19*2 желт.</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>БрянскКабель ВВГнг 3*4</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 18 модулей НАР.</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 12 модулей ВНУТР</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 18 модулей ВНУТ</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>ССТ Теплый пол (мат) 1,2м2</t>
+  </si>
+  <si>
+    <t>ССТ Теплый пол (мат) 2м2 ( WSM-300-2.00)</t>
+  </si>
+  <si>
+    <t>EASTEK Терморегулятор (мех.) RTC 70.26</t>
+  </si>
+  <si>
+    <t>Конкорд ВВГнг LS ГОСТ 3*2,5мм</t>
+  </si>
+  <si>
+    <t>ABB ДИФ. Автомат 16А 2 полюса</t>
+  </si>
+  <si>
+    <t>Legrand Рамка 1 - местная сл.кость</t>
+  </si>
+  <si>
+    <t>Legrand Рамка 2 - местная сл.кость</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>СЕВКАБЕЛЬ NYM 3*2,5мм</t>
+  </si>
+  <si>
+    <t>Клипса для гофры (электр.) 20мм</t>
+  </si>
+  <si>
+    <t>КабельАрсенал кабель ВВГнг 3*2,5</t>
+  </si>
+  <si>
+    <t>ROL'S Изолента 19*2 крас.</t>
+  </si>
+  <si>
+    <t>Изолента 19*2 син. Украина</t>
+  </si>
+  <si>
+    <t>ABB Автомат 16A</t>
+  </si>
+  <si>
+    <t>ABB Автомат 25A</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>СЕВКАБЕЛЬ NYM 3*1,5мм</t>
+  </si>
+  <si>
+    <t>ABB ДИФ. Автомат 25А 2 полюса</t>
+  </si>
+  <si>
+    <t>Legrand Рамка 3 - местная сл.кость</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>ABB Автомат 10A</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Legrand Выключатель 2кл сл.кость</t>
+  </si>
+  <si>
+    <t>ABB Автомат 32A</t>
+  </si>
+  <si>
+    <t>ABB УЗО 40A</t>
+  </si>
+  <si>
+    <t>Wago Клемма 3х защелки</t>
+  </si>
+  <si>
+    <t>ABB УЗО 16A</t>
+  </si>
+  <si>
+    <t>Legrand Выключатель 1кл сл.кость</t>
+  </si>
+  <si>
+    <t>ABB Автомат 40А 2 полюса</t>
+  </si>
+  <si>
+    <t>ROL'S Изолента 19*2 бел.</t>
+  </si>
+  <si>
+    <t>ROL'S Изолента 19*2 зел.</t>
+  </si>
+  <si>
+    <t>КабельАрсенал ВВГнг 3*6</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Cavel ТВ кабель (Итал.) SAT703B ret</t>
+  </si>
+  <si>
+    <t>UNIVersal патрон E27</t>
+  </si>
+  <si>
+    <t>Кабель ПВС 2*1,5</t>
+  </si>
+  <si>
+    <t>Конкорд ВВГнг LS ГОСТ 3*1,5мм</t>
+  </si>
+  <si>
+    <t>Подрозетник по ГКЛ син.</t>
+  </si>
+  <si>
+    <t>Wago Клемма 2х защелки</t>
+  </si>
+  <si>
+    <t>Дюбель хомут 5мм</t>
+  </si>
+  <si>
+    <t>Wago Клемма 5x без пасты</t>
+  </si>
+  <si>
+    <t>Wago Клемма 5х защелки</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Конкорд NYM 3*6мм</t>
+  </si>
+  <si>
+    <t>Калашников Лампа 200вт Е27</t>
+  </si>
+  <si>
+    <t>Wago Клемма 3x без пасты</t>
+  </si>
+  <si>
+    <t>Калашников Лампа 150вт Е27</t>
+  </si>
+  <si>
+    <t>Wago Клемма 2x без пасты</t>
+  </si>
+  <si>
+    <t>Витая пара</t>
+  </si>
+  <si>
+    <t>Гофра электр. 16мм (б\н) сер.</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Клипса для гофры (электр.) 16мм</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Кабель Телефонный (б\н)</t>
+  </si>
+  <si>
+    <t>Клипса для гофры (электр.) 25мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Зубило плоское 20*240</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>ГОЛДЕН Бур 8*160</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 6,5*110</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 6*160</t>
+  </si>
+  <si>
+    <t>ЮХТ Бур по бетону 6*110</t>
+  </si>
+  <si>
+    <t>БИБЕР Зубило лопаточное 40*250мм</t>
+  </si>
+  <si>
+    <t>Сибртех Коронка М22*68 SDS+</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>Биты PH-2 25мм (3шт\уп)</t>
+  </si>
+  <si>
+    <t>УКР ДИАМАНТ Диск по Бетону 125*7</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Голден Пика 14*250</t>
+  </si>
+  <si>
+    <t>ГОЛДЕН Бур 24*410</t>
+  </si>
+  <si>
+    <t>MATRIX Бур по бетону 8*210</t>
+  </si>
+  <si>
+    <t>ГОЛДЕН Бур 10*150</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>ЗУБР Алмазная чашка</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>БИБЕР Бур 8*250\310мм 25\100</t>
+  </si>
+  <si>
+    <t>MATRIX Пика 18*280</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>БИБЕР Пилки эл.лобз 74\3мм Т111С дерев.3шт</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 12*160 SDS+</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 8*300</t>
+  </si>
+  <si>
+    <t>ЛУГА Диск отрезной 125*1,2*22мм мет 50\400</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 10*110</t>
+  </si>
+  <si>
+    <t>MATRIX Коронка М22*68 с центр.сверл. SDS+</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>MATRIX Сверло по керам. плитке 6*75</t>
+  </si>
+  <si>
+    <t>MATRIX Диск алмазн. отрезной125*22,2</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Биты РН2*50 5шт</t>
+  </si>
+  <si>
+    <t>MATRIX Бур по бетону 6*160</t>
+  </si>
+  <si>
+    <t>MATRIX Миксер 80*400 SDS+</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Пилки для эл. лобз. 74.3 Т111С</t>
+  </si>
+  <si>
+    <t>MATRIX Бур по бетону 12*160</t>
+  </si>
+  <si>
+    <t>MATRIX Бур по бетону 6,5*110</t>
   </si>
 </sst>
 </file>
@@ -414,7 +2592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C428"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
@@ -454,6 +2632,4681 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>225</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>253</v>
+      </c>
+      <c r="B115" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>266</v>
+      </c>
+      <c r="B120" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>281</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>284</v>
+      </c>
+      <c r="B130" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>287</v>
+      </c>
+      <c r="B131" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>289</v>
+      </c>
+      <c r="B133" t="s">
+        <v>290</v>
+      </c>
+      <c r="C133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" t="s">
+        <v>90</v>
+      </c>
+      <c r="C136" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>300</v>
+      </c>
+      <c r="B139" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>302</v>
+      </c>
+      <c r="B140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>309</v>
+      </c>
+      <c r="B144" t="s">
+        <v>189</v>
+      </c>
+      <c r="C144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>313</v>
+      </c>
+      <c r="B146" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>316</v>
+      </c>
+      <c r="B148" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>323</v>
+      </c>
+      <c r="B153" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>329</v>
+      </c>
+      <c r="B155" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>333</v>
+      </c>
+      <c r="B158" t="s">
+        <v>110</v>
+      </c>
+      <c r="C158" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>336</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>337</v>
+      </c>
+      <c r="B161" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>339</v>
+      </c>
+      <c r="B162" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>341</v>
+      </c>
+      <c r="B163" t="s">
+        <v>342</v>
+      </c>
+      <c r="C163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>347</v>
+      </c>
+      <c r="B165" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>348</v>
+      </c>
+      <c r="B166" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" t="s">
+        <v>353</v>
+      </c>
+      <c r="C168" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>355</v>
+      </c>
+      <c r="B169" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>357</v>
+      </c>
+      <c r="B170" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>359</v>
+      </c>
+      <c r="B171" t="s">
+        <v>38</v>
+      </c>
+      <c r="C171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>361</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>362</v>
+      </c>
+      <c r="B173" t="s">
+        <v>363</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>364</v>
+      </c>
+      <c r="B174" t="s">
+        <v>66</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>365</v>
+      </c>
+      <c r="B175" t="s">
+        <v>366</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>367</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>369</v>
+      </c>
+      <c r="B177" t="s">
+        <v>370</v>
+      </c>
+      <c r="C177" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>372</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>373</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>374</v>
+      </c>
+      <c r="B180" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" t="s">
+        <v>322</v>
+      </c>
+      <c r="C181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>378</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>384</v>
+      </c>
+      <c r="B185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>386</v>
+      </c>
+      <c r="B186" t="s">
+        <v>387</v>
+      </c>
+      <c r="C186" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>388</v>
+      </c>
+      <c r="B187" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>389</v>
+      </c>
+      <c r="B188" t="s">
+        <v>390</v>
+      </c>
+      <c r="C188" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>392</v>
+      </c>
+      <c r="B189" t="s">
+        <v>255</v>
+      </c>
+      <c r="C189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>394</v>
+      </c>
+      <c r="B190" t="s">
+        <v>322</v>
+      </c>
+      <c r="C190" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>396</v>
+      </c>
+      <c r="B191" t="s">
+        <v>165</v>
+      </c>
+      <c r="C191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>397</v>
+      </c>
+      <c r="B192" t="s">
+        <v>338</v>
+      </c>
+      <c r="C192" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>398</v>
+      </c>
+      <c r="B193" t="s">
+        <v>237</v>
+      </c>
+      <c r="C193" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>399</v>
+      </c>
+      <c r="B194" t="s">
+        <v>400</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>401</v>
+      </c>
+      <c r="B195" t="s">
+        <v>402</v>
+      </c>
+      <c r="C195" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>404</v>
+      </c>
+      <c r="B197" t="s">
+        <v>116</v>
+      </c>
+      <c r="C197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>405</v>
+      </c>
+      <c r="B198" t="s">
+        <v>406</v>
+      </c>
+      <c r="C198" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>408</v>
+      </c>
+      <c r="B199" t="s">
+        <v>70</v>
+      </c>
+      <c r="C199" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>412</v>
+      </c>
+      <c r="B201" t="s">
+        <v>413</v>
+      </c>
+      <c r="C201" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>415</v>
+      </c>
+      <c r="B202" t="s">
+        <v>416</v>
+      </c>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>417</v>
+      </c>
+      <c r="B203" t="s">
+        <v>418</v>
+      </c>
+      <c r="C203" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>419</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" t="s">
+        <v>87</v>
+      </c>
+      <c r="C205" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>422</v>
+      </c>
+      <c r="B206" t="s">
+        <v>148</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>423</v>
+      </c>
+      <c r="B207" t="s">
+        <v>424</v>
+      </c>
+      <c r="C207" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>426</v>
+      </c>
+      <c r="B208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>427</v>
+      </c>
+      <c r="B209" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>428</v>
+      </c>
+      <c r="B210" t="s">
+        <v>178</v>
+      </c>
+      <c r="C210" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>430</v>
+      </c>
+      <c r="B211" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>432</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C214" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" t="s">
+        <v>434</v>
+      </c>
+      <c r="C215" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216" t="s">
+        <v>434</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" t="s">
+        <v>140</v>
+      </c>
+      <c r="C217" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>440</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>441</v>
+      </c>
+      <c r="B219" t="s">
+        <v>442</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>443</v>
+      </c>
+      <c r="B220" t="s">
+        <v>434</v>
+      </c>
+      <c r="C220" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>445</v>
+      </c>
+      <c r="B221" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222" t="s">
+        <v>434</v>
+      </c>
+      <c r="C222" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>448</v>
+      </c>
+      <c r="B223" t="s">
+        <v>449</v>
+      </c>
+      <c r="C223" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" t="s">
+        <v>84</v>
+      </c>
+      <c r="C224" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>451</v>
+      </c>
+      <c r="B225" t="s">
+        <v>172</v>
+      </c>
+      <c r="C225" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>453</v>
+      </c>
+      <c r="B226" t="s">
+        <v>108</v>
+      </c>
+      <c r="C226" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>343</v>
+      </c>
+      <c r="C227" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>456</v>
+      </c>
+      <c r="B228" t="s">
+        <v>255</v>
+      </c>
+      <c r="C228" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>457</v>
+      </c>
+      <c r="B229" t="s">
+        <v>458</v>
+      </c>
+      <c r="C229" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" t="s">
+        <v>461</v>
+      </c>
+      <c r="C230" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>463</v>
+      </c>
+      <c r="B231" t="s">
+        <v>434</v>
+      </c>
+      <c r="C231" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>465</v>
+      </c>
+      <c r="B232" t="s">
+        <v>90</v>
+      </c>
+      <c r="C232" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>466</v>
+      </c>
+      <c r="B233" t="s">
+        <v>413</v>
+      </c>
+      <c r="C233" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>467</v>
+      </c>
+      <c r="B234" t="s">
+        <v>468</v>
+      </c>
+      <c r="C234" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>470</v>
+      </c>
+      <c r="B235" t="s">
+        <v>324</v>
+      </c>
+      <c r="C235" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>471</v>
+      </c>
+      <c r="B236" t="s">
+        <v>136</v>
+      </c>
+      <c r="C236" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>473</v>
+      </c>
+      <c r="B237" t="s">
+        <v>108</v>
+      </c>
+      <c r="C237" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>204</v>
+      </c>
+      <c r="C238" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>475</v>
+      </c>
+      <c r="B239" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>479</v>
+      </c>
+      <c r="B241" t="s">
+        <v>480</v>
+      </c>
+      <c r="C241" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>481</v>
+      </c>
+      <c r="B242" t="s">
+        <v>482</v>
+      </c>
+      <c r="C242" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>483</v>
+      </c>
+      <c r="B243" t="s">
+        <v>187</v>
+      </c>
+      <c r="C243" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>485</v>
+      </c>
+      <c r="B244" t="s">
+        <v>486</v>
+      </c>
+      <c r="C244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>340</v>
+      </c>
+      <c r="C245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>317</v>
+      </c>
+      <c r="C246" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>491</v>
+      </c>
+      <c r="B247" t="s">
+        <v>492</v>
+      </c>
+      <c r="C247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>106</v>
+      </c>
+      <c r="C248" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>495</v>
+      </c>
+      <c r="B249" t="s">
+        <v>322</v>
+      </c>
+      <c r="C249" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>496</v>
+      </c>
+      <c r="B250" t="s">
+        <v>497</v>
+      </c>
+      <c r="C250" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251" t="s">
+        <v>145</v>
+      </c>
+      <c r="C251" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252" t="s">
+        <v>501</v>
+      </c>
+      <c r="C252" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" t="s">
+        <v>503</v>
+      </c>
+      <c r="C253" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>505</v>
+      </c>
+      <c r="B254" t="s">
+        <v>506</v>
+      </c>
+      <c r="C254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>132</v>
+      </c>
+      <c r="C255" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>509</v>
+      </c>
+      <c r="B256" t="s">
+        <v>510</v>
+      </c>
+      <c r="C256" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>511</v>
+      </c>
+      <c r="B257" t="s">
+        <v>156</v>
+      </c>
+      <c r="C257" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>512</v>
+      </c>
+      <c r="B258" t="s">
+        <v>513</v>
+      </c>
+      <c r="C258" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>514</v>
+      </c>
+      <c r="B259" t="s">
+        <v>283</v>
+      </c>
+      <c r="C259" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" t="s">
+        <v>93</v>
+      </c>
+      <c r="C260" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
+        <v>110</v>
+      </c>
+      <c r="C261" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>517</v>
+      </c>
+      <c r="B262" t="s">
+        <v>103</v>
+      </c>
+      <c r="C262" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>518</v>
+      </c>
+      <c r="B263" t="s">
+        <v>519</v>
+      </c>
+      <c r="C263" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>520</v>
+      </c>
+      <c r="B264" t="s">
+        <v>168</v>
+      </c>
+      <c r="C264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" t="s">
+        <v>170</v>
+      </c>
+      <c r="C265" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>522</v>
+      </c>
+      <c r="B266" t="s">
+        <v>523</v>
+      </c>
+      <c r="C266" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>524</v>
+      </c>
+      <c r="B267" t="s">
+        <v>136</v>
+      </c>
+      <c r="C267" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>526</v>
+      </c>
+      <c r="B268" t="s">
+        <v>145</v>
+      </c>
+      <c r="C268" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>527</v>
+      </c>
+      <c r="B269" t="s">
+        <v>165</v>
+      </c>
+      <c r="C269" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>528</v>
+      </c>
+      <c r="B270" t="s">
+        <v>529</v>
+      </c>
+      <c r="C270" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271" t="s">
+        <v>146</v>
+      </c>
+      <c r="C271" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>532</v>
+      </c>
+      <c r="B272" t="s">
+        <v>533</v>
+      </c>
+      <c r="C272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>534</v>
+      </c>
+      <c r="B273" t="s">
+        <v>72</v>
+      </c>
+      <c r="C273" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>535</v>
+      </c>
+      <c r="B274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C274" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>536</v>
+      </c>
+      <c r="B275" t="s">
+        <v>322</v>
+      </c>
+      <c r="C275" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>537</v>
+      </c>
+      <c r="B276" t="s">
+        <v>538</v>
+      </c>
+      <c r="C276" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>539</v>
+      </c>
+      <c r="B277" t="s">
+        <v>123</v>
+      </c>
+      <c r="C277" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>540</v>
+      </c>
+      <c r="B278" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>541</v>
+      </c>
+      <c r="B279" t="s">
+        <v>276</v>
+      </c>
+      <c r="C279" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>542</v>
+      </c>
+      <c r="B280" t="s">
+        <v>177</v>
+      </c>
+      <c r="C280" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>543</v>
+      </c>
+      <c r="B281" t="s">
+        <v>123</v>
+      </c>
+      <c r="C281" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>544</v>
+      </c>
+      <c r="B282" t="s">
+        <v>211</v>
+      </c>
+      <c r="C282" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>545</v>
+      </c>
+      <c r="B283" t="s">
+        <v>54</v>
+      </c>
+      <c r="C283" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>546</v>
+      </c>
+      <c r="B284" t="s">
+        <v>110</v>
+      </c>
+      <c r="C284" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>547</v>
+      </c>
+      <c r="B285" t="s">
+        <v>548</v>
+      </c>
+      <c r="C285" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>550</v>
+      </c>
+      <c r="B286" t="s">
+        <v>170</v>
+      </c>
+      <c r="C286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>551</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>552</v>
+      </c>
+      <c r="B288" t="s">
+        <v>103</v>
+      </c>
+      <c r="C288" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>553</v>
+      </c>
+      <c r="B289" t="s">
+        <v>301</v>
+      </c>
+      <c r="C289" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>555</v>
+      </c>
+      <c r="B290" t="s">
+        <v>131</v>
+      </c>
+      <c r="C290" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>556</v>
+      </c>
+      <c r="B291" t="s">
+        <v>170</v>
+      </c>
+      <c r="C291" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>557</v>
+      </c>
+      <c r="B292" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>558</v>
+      </c>
+      <c r="B293" t="s">
+        <v>156</v>
+      </c>
+      <c r="C293" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>559</v>
+      </c>
+      <c r="B294" t="s">
+        <v>156</v>
+      </c>
+      <c r="C294" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>560</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>561</v>
+      </c>
+      <c r="B296" t="s">
+        <v>325</v>
+      </c>
+      <c r="C296" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>562</v>
+      </c>
+      <c r="B297" t="s">
+        <v>76</v>
+      </c>
+      <c r="C297" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>564</v>
+      </c>
+      <c r="B298" t="s">
+        <v>563</v>
+      </c>
+      <c r="C298" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>565</v>
+      </c>
+      <c r="B299" t="s">
+        <v>98</v>
+      </c>
+      <c r="C299" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>566</v>
+      </c>
+      <c r="B300" t="s">
+        <v>103</v>
+      </c>
+      <c r="C300" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>567</v>
+      </c>
+      <c r="B301" t="s">
+        <v>568</v>
+      </c>
+      <c r="C301" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>570</v>
+      </c>
+      <c r="B302" t="s">
+        <v>90</v>
+      </c>
+      <c r="C302" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>571</v>
+      </c>
+      <c r="B303" t="s">
+        <v>301</v>
+      </c>
+      <c r="C303" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>573</v>
+      </c>
+      <c r="B304" t="s">
+        <v>143</v>
+      </c>
+      <c r="C304" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>574</v>
+      </c>
+      <c r="B305" t="s">
+        <v>145</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>575</v>
+      </c>
+      <c r="B306" t="s">
+        <v>140</v>
+      </c>
+      <c r="C306" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>576</v>
+      </c>
+      <c r="B307" t="s">
+        <v>513</v>
+      </c>
+      <c r="C307" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>577</v>
+      </c>
+      <c r="B308" t="s">
+        <v>143</v>
+      </c>
+      <c r="C308" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>578</v>
+      </c>
+      <c r="B309" t="s">
+        <v>143</v>
+      </c>
+      <c r="C309" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>579</v>
+      </c>
+      <c r="B310" t="s">
+        <v>98</v>
+      </c>
+      <c r="C310" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>580</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
+      <c r="C311" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>581</v>
+      </c>
+      <c r="B312" t="s">
+        <v>98</v>
+      </c>
+      <c r="C312" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>582</v>
+      </c>
+      <c r="B313" t="s">
+        <v>583</v>
+      </c>
+      <c r="C313" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>584</v>
+      </c>
+      <c r="B314" t="s">
+        <v>156</v>
+      </c>
+      <c r="C314" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>585</v>
+      </c>
+      <c r="B315" t="s">
+        <v>458</v>
+      </c>
+      <c r="C315" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>586</v>
+      </c>
+      <c r="B316" t="s">
+        <v>159</v>
+      </c>
+      <c r="C316" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>587</v>
+      </c>
+      <c r="B317" t="s">
+        <v>131</v>
+      </c>
+      <c r="C317" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>588</v>
+      </c>
+      <c r="B318" t="s">
+        <v>589</v>
+      </c>
+      <c r="C318" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>591</v>
+      </c>
+      <c r="B319" t="s">
+        <v>157</v>
+      </c>
+      <c r="C319" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>592</v>
+      </c>
+      <c r="B320" t="s">
+        <v>593</v>
+      </c>
+      <c r="C320" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>594</v>
+      </c>
+      <c r="B321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>595</v>
+      </c>
+      <c r="B322" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>596</v>
+      </c>
+      <c r="B323" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>597</v>
+      </c>
+      <c r="B324" t="s">
+        <v>598</v>
+      </c>
+      <c r="C324" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>600</v>
+      </c>
+      <c r="B325" t="s">
+        <v>601</v>
+      </c>
+      <c r="C325" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>602</v>
+      </c>
+      <c r="B326" t="s">
+        <v>601</v>
+      </c>
+      <c r="C326" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>603</v>
+      </c>
+      <c r="B327" t="s">
+        <v>125</v>
+      </c>
+      <c r="C327" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>604</v>
+      </c>
+      <c r="B328" t="s">
+        <v>181</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>605</v>
+      </c>
+      <c r="B329" t="s">
+        <v>246</v>
+      </c>
+      <c r="C329" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>607</v>
+      </c>
+      <c r="B330" t="s">
+        <v>464</v>
+      </c>
+      <c r="C330" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>608</v>
+      </c>
+      <c r="B331" t="s">
+        <v>23</v>
+      </c>
+      <c r="C331" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>609</v>
+      </c>
+      <c r="B332" t="s">
+        <v>111</v>
+      </c>
+      <c r="C332" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>611</v>
+      </c>
+      <c r="B333" t="s">
+        <v>458</v>
+      </c>
+      <c r="C333" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>612</v>
+      </c>
+      <c r="B334" t="s">
+        <v>264</v>
+      </c>
+      <c r="C334" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>613</v>
+      </c>
+      <c r="B335" t="s">
+        <v>111</v>
+      </c>
+      <c r="C335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>614</v>
+      </c>
+      <c r="B336" t="s">
+        <v>264</v>
+      </c>
+      <c r="C336" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>615</v>
+      </c>
+      <c r="B337" t="s">
+        <v>431</v>
+      </c>
+      <c r="C337" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>616</v>
+      </c>
+      <c r="B338" t="s">
+        <v>533</v>
+      </c>
+      <c r="C338" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>617</v>
+      </c>
+      <c r="B339" t="s">
+        <v>111</v>
+      </c>
+      <c r="C339" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>618</v>
+      </c>
+      <c r="B340" t="s">
+        <v>111</v>
+      </c>
+      <c r="C340" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>619</v>
+      </c>
+      <c r="B341" t="s">
+        <v>620</v>
+      </c>
+      <c r="C341" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>622</v>
+      </c>
+      <c r="B342" t="s">
+        <v>324</v>
+      </c>
+      <c r="C342" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>623</v>
+      </c>
+      <c r="B343" t="s">
+        <v>43</v>
+      </c>
+      <c r="C343" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>624</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>625</v>
+      </c>
+      <c r="B345" t="s">
+        <v>141</v>
+      </c>
+      <c r="C345" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>626</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>627</v>
+      </c>
+      <c r="B347" t="s">
+        <v>156</v>
+      </c>
+      <c r="C347" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>629</v>
+      </c>
+      <c r="B348" t="s">
+        <v>30</v>
+      </c>
+      <c r="C348" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>630</v>
+      </c>
+      <c r="B349" t="s">
+        <v>631</v>
+      </c>
+      <c r="C349" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>632</v>
+      </c>
+      <c r="B350" t="s">
+        <v>633</v>
+      </c>
+      <c r="C350" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>635</v>
+      </c>
+      <c r="B351" t="s">
+        <v>636</v>
+      </c>
+      <c r="C351" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>637</v>
+      </c>
+      <c r="B352" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>638</v>
+      </c>
+      <c r="B353" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>639</v>
+      </c>
+      <c r="B354" t="s">
+        <v>366</v>
+      </c>
+      <c r="C354" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>640</v>
+      </c>
+      <c r="B355" t="s">
+        <v>519</v>
+      </c>
+      <c r="C355" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>641</v>
+      </c>
+      <c r="B356" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>642</v>
+      </c>
+      <c r="B357" t="s">
+        <v>164</v>
+      </c>
+      <c r="C357" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>643</v>
+      </c>
+      <c r="B358" t="s">
+        <v>644</v>
+      </c>
+      <c r="C358" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>645</v>
+      </c>
+      <c r="B359" t="s">
+        <v>480</v>
+      </c>
+      <c r="C359" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>646</v>
+      </c>
+      <c r="B360" t="s">
+        <v>620</v>
+      </c>
+      <c r="C360" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>647</v>
+      </c>
+      <c r="B361" t="s">
+        <v>146</v>
+      </c>
+      <c r="C361" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>648</v>
+      </c>
+      <c r="B362" t="s">
+        <v>145</v>
+      </c>
+      <c r="C362" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>649</v>
+      </c>
+      <c r="B363" t="s">
+        <v>413</v>
+      </c>
+      <c r="C363" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>650</v>
+      </c>
+      <c r="B364" t="s">
+        <v>110</v>
+      </c>
+      <c r="C364" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>651</v>
+      </c>
+      <c r="B365" t="s">
+        <v>652</v>
+      </c>
+      <c r="C365" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>653</v>
+      </c>
+      <c r="B366" t="s">
+        <v>261</v>
+      </c>
+      <c r="C366" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>654</v>
+      </c>
+      <c r="B367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>655</v>
+      </c>
+      <c r="B368" t="s">
+        <v>621</v>
+      </c>
+      <c r="C368" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>657</v>
+      </c>
+      <c r="B369" t="s">
+        <v>658</v>
+      </c>
+      <c r="C369" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>659</v>
+      </c>
+      <c r="B370" t="s">
+        <v>116</v>
+      </c>
+      <c r="C370" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>660</v>
+      </c>
+      <c r="B371" t="s">
+        <v>658</v>
+      </c>
+      <c r="C371" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>661</v>
+      </c>
+      <c r="B372" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>662</v>
+      </c>
+      <c r="B373" t="s">
+        <v>143</v>
+      </c>
+      <c r="C373" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>663</v>
+      </c>
+      <c r="B374" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>664</v>
+      </c>
+      <c r="B375" t="s">
+        <v>110</v>
+      </c>
+      <c r="C375" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>665</v>
+      </c>
+      <c r="B376" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>666</v>
+      </c>
+      <c r="B377" t="s">
+        <v>170</v>
+      </c>
+      <c r="C377" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>667</v>
+      </c>
+      <c r="B378" t="s">
+        <v>132</v>
+      </c>
+      <c r="C378" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>668</v>
+      </c>
+      <c r="B379" t="s">
+        <v>644</v>
+      </c>
+      <c r="C379" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>670</v>
+      </c>
+      <c r="B380" t="s">
+        <v>254</v>
+      </c>
+      <c r="C380" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>671</v>
+      </c>
+      <c r="B381" t="s">
+        <v>77</v>
+      </c>
+      <c r="C381" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>672</v>
+      </c>
+      <c r="B382" t="s">
+        <v>23</v>
+      </c>
+      <c r="C382" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>673</v>
+      </c>
+      <c r="B383" t="s">
+        <v>177</v>
+      </c>
+      <c r="C383" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>674</v>
+      </c>
+      <c r="B384" t="s">
+        <v>510</v>
+      </c>
+      <c r="C384" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>675</v>
+      </c>
+      <c r="B385" t="s">
+        <v>101</v>
+      </c>
+      <c r="C385" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>676</v>
+      </c>
+      <c r="B386" t="s">
+        <v>123</v>
+      </c>
+      <c r="C386" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>677</v>
+      </c>
+      <c r="B387" t="s">
+        <v>583</v>
+      </c>
+      <c r="C387" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>678</v>
+      </c>
+      <c r="B388" t="s">
+        <v>315</v>
+      </c>
+      <c r="C388" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>680</v>
+      </c>
+      <c r="B389" t="s">
+        <v>259</v>
+      </c>
+      <c r="C389" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>681</v>
+      </c>
+      <c r="B390" t="s">
+        <v>554</v>
+      </c>
+      <c r="C390" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>682</v>
+      </c>
+      <c r="B391" t="s">
+        <v>458</v>
+      </c>
+      <c r="C391" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>683</v>
+      </c>
+      <c r="B392" t="s">
+        <v>204</v>
+      </c>
+      <c r="C392" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>684</v>
+      </c>
+      <c r="B393" t="s">
+        <v>140</v>
+      </c>
+      <c r="C393" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>685</v>
+      </c>
+      <c r="B394" t="s">
+        <v>27</v>
+      </c>
+      <c r="C394" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>686</v>
+      </c>
+      <c r="B395" t="s">
+        <v>620</v>
+      </c>
+      <c r="C395" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>688</v>
+      </c>
+      <c r="B396" t="s">
+        <v>689</v>
+      </c>
+      <c r="C396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>690</v>
+      </c>
+      <c r="B397" t="s">
+        <v>160</v>
+      </c>
+      <c r="C397" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>691</v>
+      </c>
+      <c r="B398" t="s">
+        <v>583</v>
+      </c>
+      <c r="C398" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>692</v>
+      </c>
+      <c r="B399" t="s">
+        <v>693</v>
+      </c>
+      <c r="C399" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>694</v>
+      </c>
+      <c r="B400" t="s">
+        <v>55</v>
+      </c>
+      <c r="C400" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>696</v>
+      </c>
+      <c r="B401" t="s">
+        <v>140</v>
+      </c>
+      <c r="C401" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>697</v>
+      </c>
+      <c r="B402" t="s">
+        <v>177</v>
+      </c>
+      <c r="C402" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>698</v>
+      </c>
+      <c r="B403" t="s">
+        <v>156</v>
+      </c>
+      <c r="C403" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>699</v>
+      </c>
+      <c r="B404" t="s">
+        <v>84</v>
+      </c>
+      <c r="C404" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>700</v>
+      </c>
+      <c r="B405" t="s">
+        <v>701</v>
+      </c>
+      <c r="C405" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>703</v>
+      </c>
+      <c r="B406" t="s">
+        <v>160</v>
+      </c>
+      <c r="C406" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>704</v>
+      </c>
+      <c r="B407" t="s">
+        <v>228</v>
+      </c>
+      <c r="C407" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>706</v>
+      </c>
+      <c r="B408" t="s">
+        <v>116</v>
+      </c>
+      <c r="C408" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>707</v>
+      </c>
+      <c r="B409" t="s">
+        <v>193</v>
+      </c>
+      <c r="C409" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>708</v>
+      </c>
+      <c r="B410" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>709</v>
+      </c>
+      <c r="B411" t="s">
+        <v>710</v>
+      </c>
+      <c r="C411" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>711</v>
+      </c>
+      <c r="B412" t="s">
+        <v>712</v>
+      </c>
+      <c r="C412" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>713</v>
+      </c>
+      <c r="B413" t="s">
+        <v>90</v>
+      </c>
+      <c r="C413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>714</v>
+      </c>
+      <c r="B414" t="s">
+        <v>127</v>
+      </c>
+      <c r="C414" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>716</v>
+      </c>
+      <c r="B415" t="s">
+        <v>165</v>
+      </c>
+      <c r="C415" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>717</v>
+      </c>
+      <c r="B416" t="s">
+        <v>493</v>
+      </c>
+      <c r="C416" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>718</v>
+      </c>
+      <c r="B417" t="s">
+        <v>162</v>
+      </c>
+      <c r="C417" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>719</v>
+      </c>
+      <c r="B418" t="s">
+        <v>143</v>
+      </c>
+      <c r="C418" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>721</v>
+      </c>
+      <c r="B419" t="s">
+        <v>106</v>
+      </c>
+      <c r="C419" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>722</v>
+      </c>
+      <c r="B420" t="s">
+        <v>723</v>
+      </c>
+      <c r="C420" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>725</v>
+      </c>
+      <c r="B421" t="s">
+        <v>14</v>
+      </c>
+      <c r="C421" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>726</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>728</v>
+      </c>
+      <c r="B423" t="s">
+        <v>72</v>
+      </c>
+      <c r="C423" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>729</v>
+      </c>
+      <c r="B424" t="s">
+        <v>549</v>
+      </c>
+      <c r="C424" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>730</v>
+      </c>
+      <c r="B425" t="s">
+        <v>16</v>
+      </c>
+      <c r="C425" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>732</v>
+      </c>
+      <c r="B426" t="s">
+        <v>165</v>
+      </c>
+      <c r="C426" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>733</v>
+      </c>
+      <c r="B427" t="s">
+        <v>237</v>
+      </c>
+      <c r="C427" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>734</v>
+      </c>
+      <c r="B428" t="s">
+        <v>628</v>
+      </c>
+      <c r="C428" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
